--- a/outputs/descriptives/08_corr_mediation_upper_high.xlsx
+++ b/outputs/descriptives/08_corr_mediation_upper_high.xlsx
@@ -1,22 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCASTRO\Documents\GitHub\Third-Sector-Size-and-Political-Polarization\outputs\descriptives\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD50E8-BC59-46A1-8699-CC9BB317D0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cor_matrix" sheetId="1" r:id="rId1"/>
     <sheet name="p_values" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+  <si>
+    <t>Third_pillar_size</t>
+  </si>
+  <si>
+    <t>Poli_polarization</t>
+  </si>
+  <si>
+    <t>Trust_ivs</t>
+  </si>
+  <si>
+    <t>Gini_index</t>
+  </si>
+  <si>
+    <t>Facebook_users</t>
+  </si>
+  <si>
+    <t>Loneliness</t>
+  </si>
+  <si>
+    <t>GDP_Most_Recent</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,15 +65,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,28 +87,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -108,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -142,6 +212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -176,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -351,206 +423,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Third_pillar_size</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Poli_polarization</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trust_ivs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Gini_index</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Facebook_users</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Loneliness</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GDP_Most_Recent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-0.4807777583042693</v>
-      </c>
-      <c r="C2">
-        <v>0.5344666106882286</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>-0.48077775830426928</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>0.53446661068822865</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-0.47110611378489448</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>-0.3142361564351363</v>
       </c>
-      <c r="E2">
-        <v>0.02808412840292814</v>
-      </c>
-      <c r="F2">
-        <v>0.4952896200092722</v>
-      </c>
-      <c r="G2">
-        <v>0.1860610019277008</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>-0.4807777583042693</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>-0.4711061137848945</v>
-      </c>
-      <c r="D3">
-        <v>0.205909015961055</v>
-      </c>
-      <c r="E3">
-        <v>0.07532715725749625</v>
-      </c>
-      <c r="F3">
-        <v>-0.4709173978420299</v>
-      </c>
-      <c r="G3">
-        <v>0.1163840648236561</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0.5344666106882286</v>
-      </c>
-      <c r="B4">
-        <v>-0.4711061137848945</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>-0.4217882803911528</v>
-      </c>
-      <c r="E4">
-        <v>-0.2512473979223971</v>
-      </c>
-      <c r="F4">
-        <v>0.7443560062695196</v>
-      </c>
-      <c r="G4">
-        <v>0.1502637689367909</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>-0.3142361564351363</v>
-      </c>
-      <c r="B5">
-        <v>0.205909015961055</v>
-      </c>
-      <c r="C5">
-        <v>-0.4217882803911528</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.1981509190486748</v>
-      </c>
-      <c r="F5">
-        <v>-0.4571009095290466</v>
-      </c>
-      <c r="G5">
-        <v>0.09423825974184519</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>0.02808412840292814</v>
-      </c>
-      <c r="B6">
-        <v>0.07532715725749625</v>
-      </c>
-      <c r="C6">
-        <v>-0.2512473979223971</v>
-      </c>
-      <c r="D6">
-        <v>0.1981509190486748</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>-0.3283388996463011</v>
-      </c>
-      <c r="G6">
-        <v>-0.02145768226587693</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>0.4952896200092722</v>
-      </c>
-      <c r="B7">
-        <v>-0.4709173978420299</v>
-      </c>
-      <c r="C7">
-        <v>0.7443560062695196</v>
-      </c>
-      <c r="D7">
-        <v>-0.4571009095290466</v>
-      </c>
-      <c r="E7">
-        <v>-0.3283388996463011</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.1174590655057351</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B5" s="5">
+        <v>0.20590901596105499</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.42178828039115279</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>9.2998374778369558E-2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.15738772410097041</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-0.1156823555461159</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.1266071910750613</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>0.49528962000927218</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-0.47091739784202991</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.74435600626951959</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.45710090952904658</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-0.14609705199119721</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.1860610019277008</v>
+        <v>0.18606100192770081</v>
       </c>
       <c r="B8">
         <v>0.1163840648236561</v>
       </c>
       <c r="C8">
-        <v>0.1502637689367909</v>
+        <v>0.15026376893679089</v>
       </c>
       <c r="D8">
-        <v>0.09423825974184519</v>
-      </c>
-      <c r="E8">
-        <v>-0.02145768226587693</v>
+        <v>9.4238259741845187E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.1258686688963667E-2</v>
       </c>
       <c r="F8">
-        <v>0.1174590655057351</v>
+        <v>0.11745906550573509</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -562,82 +582,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Third_pillar_size</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Poli_polarization</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trust_ivs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Gini_index</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Facebook_users</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Loneliness</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GDP_Most_Recent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.002090007496571043</v>
+        <v>2.090007496571043E-3</v>
       </c>
       <c r="C2">
-        <v>0.0002598783458535901</v>
+        <v>2.5987834585359008E-4</v>
       </c>
       <c r="D2">
-        <v>0.1843117044930545</v>
+        <v>0.19967101320080899</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.001264860727144452</v>
+        <v>1.2648607271444521E-3</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.0001161115275872802</v>
+        <v>1.1611152758728021E-4</v>
       </c>
       <c r="B3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.002821135686733154</v>
+        <v>2.8211356867331541E-3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -646,125 +652,125 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.002821135686733154</v>
+        <v>2.8211356867331541E-3</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1.29939172926795E-05</v>
+        <v>1.29939172926795E-5</v>
       </c>
       <c r="B4">
-        <v>0.0001659491580431267</v>
+        <v>1.6594915804312669E-4</v>
       </c>
       <c r="C4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01228056386364201</v>
+        <v>1.228056386364201E-2</v>
       </c>
       <c r="E4">
-        <v>0.6041456622020487</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2.958084353559085E-10</v>
+        <v>2.9580843535590851E-10</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.01535930870775454</v>
+        <v>1.5359308707754539E-2</v>
       </c>
       <c r="B5">
-        <v>0.1176779843783941</v>
+        <v>0.11767798437839409</v>
       </c>
       <c r="C5">
-        <v>0.0008771831331172864</v>
+        <v>8.7718313311728642E-4</v>
       </c>
       <c r="D5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.004098641756055094</v>
+        <v>4.0986417560550936E-3</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.8327746343406177</v>
+        <v>0.48357104252242061</v>
       </c>
       <c r="B6">
-        <v>0.5706967221192419</v>
+        <v>0.2338544085676646</v>
       </c>
       <c r="C6">
-        <v>0.05492233292745897</v>
+        <v>0.38293817281157821</v>
       </c>
       <c r="D6">
-        <v>0.1324727462041159</v>
+        <v>0.33930811377584441</v>
       </c>
       <c r="E6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.144573596924529</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6.657161721812906E-05</v>
+        <v>6.6571617218129061E-5</v>
       </c>
       <c r="B7">
-        <v>0.0001670920141047278</v>
+        <v>1.6709201410472781E-4</v>
       </c>
       <c r="C7">
         <v>1.408611596932898E-11</v>
       </c>
       <c r="D7">
-        <v>0.0002732427837370062</v>
+        <v>2.7324278373700621E-4</v>
       </c>
       <c r="E7">
-        <v>0.01112104591727146</v>
+        <v>0.26954145426599868</v>
       </c>
       <c r="F7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.1582630504104902</v>
+        <v>0.15826305041049021</v>
       </c>
       <c r="B8">
-        <v>0.3800392328595558</v>
+        <v>0.38003923285955582</v>
       </c>
       <c r="C8">
-        <v>0.2559705608426724</v>
+        <v>0.25597056084267239</v>
       </c>
       <c r="D8">
-        <v>0.4777336621006366</v>
+        <v>0.47773366210063661</v>
       </c>
       <c r="E8">
-        <v>0.8718479843263425</v>
+        <v>0.75635913797485133</v>
       </c>
       <c r="F8">
-        <v>0.3756236809737623</v>
+        <v>0.37562368097376231</v>
       </c>
       <c r="G8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
